--- a/UKPremierLeague-24-2025.xlsx
+++ b/UKPremierLeague-24-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerBI\UKPremierLeague-24-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A0C194-493B-4B1A-B535-564E3A224307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6AD12D-558E-424E-A2F0-559A0D9EE76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="3945" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data From" sheetId="1" r:id="rId1"/>
@@ -154,123 +154,63 @@
     <t>Anfield</t>
   </si>
   <si>
-    <t>liverpool.svg</t>
-  </si>
-  <si>
     <t>Emirates Stadium</t>
   </si>
   <si>
-    <t>arsenal.svg</t>
-  </si>
-  <si>
     <t>The City Ground</t>
   </si>
   <si>
-    <t>newcastle-united.svg</t>
-  </si>
-  <si>
     <t>St James' Park</t>
   </si>
   <si>
-    <t>nottingham-forest.svg</t>
-  </si>
-  <si>
     <t>Etihad Stadium</t>
   </si>
   <si>
-    <t>manchester-city.svg</t>
-  </si>
-  <si>
     <t>Stamford Bridge</t>
   </si>
   <si>
-    <t>chelsea.svg</t>
-  </si>
-  <si>
     <t>Villa Park</t>
   </si>
   <si>
-    <t>aston-villa.svg</t>
-  </si>
-  <si>
     <t>Vitality Stadium</t>
   </si>
   <si>
-    <t>afc-bournemouth.svg</t>
-  </si>
-  <si>
     <t>Craven Cottage</t>
   </si>
   <si>
-    <t>fulham.svg</t>
-  </si>
-  <si>
     <t>AMEX Stadium</t>
   </si>
   <si>
-    <t>brighton-and-hove-albion.svg</t>
-  </si>
-  <si>
     <t>Gtech Community Stadium</t>
   </si>
   <si>
-    <t>brentford.svg</t>
-  </si>
-  <si>
     <t>Selhurst Park</t>
   </si>
   <si>
-    <t>crystal-palace.svg</t>
-  </si>
-  <si>
     <t>Goodison Park</t>
   </si>
   <si>
-    <t>everton.svg</t>
-  </si>
-  <si>
     <t>Old Trafford</t>
   </si>
   <si>
-    <t>manchester-united.svg</t>
-  </si>
-  <si>
     <t>Molineux Stadium</t>
   </si>
   <si>
-    <t>wolverhampton-wanderers.svg</t>
-  </si>
-  <si>
     <t>Tottenham Hotspur Stadium</t>
   </si>
   <si>
-    <t>tottenham-hotspur.svg</t>
-  </si>
-  <si>
     <t>London Stadium</t>
   </si>
   <si>
-    <t>west-ham-united.svg</t>
-  </si>
-  <si>
     <t>Portman Road</t>
   </si>
   <si>
-    <t>ipswich-town.svg</t>
-  </si>
-  <si>
     <t>King Power Stadium</t>
   </si>
   <si>
-    <t>leicester-city.svg</t>
-  </si>
-  <si>
     <t>St Mary's Stadium</t>
   </si>
   <si>
-    <t>southampton.svg</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -995,6 +935,66 @@
   </si>
   <si>
     <t>2001–02</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-liverpool.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-arsenal.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-newcastle-united.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-nottingham-forest.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-manchester-city.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-chelsea.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-aston-villa.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-afc-bournemouth.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-fulham.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-brighton-and-hove-albion.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-brentford.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-crystal-palace.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-everton.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-manchester-united.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-wolverhampton-wanderers.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-tottenham-hotspur.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-west-ham-united.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-ipswich-town.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-leicester-city.png</t>
+  </si>
+  <si>
+    <t>https://saharahex.wordpress.com/wp-content/uploads/2025/04/football-southampton.png</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1048,6 +1048,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CE7759-A38E-4DE9-8024-BFC27C18406A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1417,8 +1420,8 @@
       <c r="C2">
         <v>61.276000000000003</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
+      <c r="D2" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1426,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>60.704000000000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>42</v>
+      <c r="D3" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,13 +1443,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>30.404</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
+      <c r="D4" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1454,13 +1457,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>52.258000000000003</v>
       </c>
-      <c r="D5" t="s">
-        <v>46</v>
+      <c r="D5" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1468,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>55.097000000000001</v>
       </c>
-      <c r="D6" t="s">
-        <v>48</v>
+      <c r="D6" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>41.631</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1496,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>42.917999999999999</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
+      <c r="D8" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>11.307</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>29.588999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1538,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>31.876000000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,13 +1555,13 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2">
         <v>17.25</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1566,13 +1569,13 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C13">
         <v>25.486000000000001</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1580,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>39.414000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1594,13 +1597,13 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>74.879000000000005</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1608,13 +1611,13 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
         <v>31.75</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,13 +1625,13 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2">
         <v>62.85</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1636,13 +1639,13 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2">
         <v>62.5</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,13 +1653,13 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C19">
         <v>30.056000000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1664,13 +1667,13 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>32.259</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1678,13 +1681,13 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <v>32.384</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1697,7 +1700,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,46 +2261,46 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2361,7 +2364,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -2489,7 +2492,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -2521,7 +2524,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -2585,7 +2588,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -2617,7 +2620,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -2681,7 +2684,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -2713,7 +2716,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -2745,7 +2748,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2777,7 +2780,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -2809,7 +2812,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -2841,7 +2844,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -2873,7 +2876,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -2905,7 +2908,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -2937,7 +2940,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -2969,7 +2972,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -3001,7 +3004,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
         <v>33</v>
@@ -3065,7 +3068,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -3097,7 +3100,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
@@ -3129,7 +3132,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -3161,7 +3164,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -3225,7 +3228,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
@@ -3257,7 +3260,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -3289,7 +3292,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
@@ -3321,7 +3324,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -3353,7 +3356,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
         <v>22</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -3417,7 +3420,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
@@ -3481,7 +3484,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s">
         <v>27</v>
@@ -3513,7 +3516,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
         <v>32</v>
@@ -3545,7 +3548,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -3577,7 +3580,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -3641,7 +3644,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -3673,7 +3676,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>32</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B46" t="s">
         <v>28</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
@@ -3833,7 +3836,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
@@ -3865,7 +3868,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -3929,7 +3932,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B53" t="s">
         <v>30</v>
@@ -3961,7 +3964,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -4025,7 +4028,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -4057,7 +4060,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>25</v>
@@ -4089,7 +4092,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -4121,10 +4124,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C59">
         <v>24</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -4185,7 +4188,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -4217,7 +4220,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s">
         <v>25</v>
@@ -4249,7 +4252,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
         <v>30</v>
@@ -4281,7 +4284,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
@@ -4313,7 +4316,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -4345,7 +4348,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
         <v>27</v>
@@ -4377,7 +4380,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
@@ -4409,7 +4412,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -4441,7 +4444,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
         <v>21</v>
@@ -4473,7 +4476,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
@@ -4505,7 +4508,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -4537,7 +4540,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
@@ -4569,7 +4572,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
         <v>34</v>
@@ -4601,7 +4604,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
         <v>35</v>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
         <v>35</v>
@@ -4665,7 +4668,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
         <v>35</v>
@@ -4697,7 +4700,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
         <v>22</v>
@@ -4729,7 +4732,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -4825,7 +4828,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -4889,7 +4892,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
         <v>22</v>
@@ -4921,7 +4924,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
         <v>31</v>
@@ -4953,7 +4956,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
         <v>28</v>
@@ -4985,7 +4988,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
         <v>20</v>
@@ -5017,7 +5020,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
@@ -5049,7 +5052,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
         <v>21</v>
@@ -5081,7 +5084,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
@@ -5145,7 +5148,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -5177,7 +5180,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
         <v>33</v>
@@ -5209,7 +5212,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
         <v>31</v>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
@@ -5337,7 +5340,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
         <v>22</v>
@@ -5369,7 +5372,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
         <v>29</v>
@@ -5401,7 +5404,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
         <v>21</v>
@@ -5465,7 +5468,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="B101" t="s">
         <v>21</v>
@@ -5497,7 +5500,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
@@ -5529,7 +5532,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B103" t="s">
         <v>17</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
         <v>24</v>
@@ -5593,7 +5596,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
@@ -5625,7 +5628,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
         <v>32</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B107" t="s">
         <v>22</v>
@@ -5689,7 +5692,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
@@ -5721,10 +5724,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="C109">
         <v>22</v>
@@ -5753,7 +5756,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
         <v>36</v>
@@ -5785,7 +5788,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -5817,7 +5820,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
         <v>34</v>
@@ -5881,7 +5884,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
@@ -5913,7 +5916,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
         <v>28</v>
@@ -5945,7 +5948,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B116" t="s">
         <v>29</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="B117" t="s">
         <v>18</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
         <v>31</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
         <v>28</v>
@@ -6073,7 +6076,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
         <v>34</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
         <v>27</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
         <v>31</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
         <v>26</v>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B125" t="s">
         <v>26</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -6297,7 +6300,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
@@ -6329,7 +6332,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
         <v>31</v>
@@ -6361,7 +6364,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
@@ -6393,7 +6396,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
         <v>26</v>
@@ -6425,7 +6428,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
         <v>30</v>
@@ -6457,7 +6460,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B132" t="s">
         <v>19</v>
@@ -6489,7 +6492,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
         <v>31</v>
@@ -6521,7 +6524,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
@@ -6553,7 +6556,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
@@ -6585,7 +6588,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
         <v>33</v>
@@ -6617,7 +6620,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
         <v>18</v>
@@ -6649,7 +6652,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -6681,7 +6684,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
@@ -6713,7 +6716,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
         <v>19</v>
@@ -6745,7 +6748,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
         <v>32</v>
@@ -6777,7 +6780,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
         <v>18</v>
@@ -6809,7 +6812,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
         <v>36</v>
@@ -6841,7 +6844,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
         <v>27</v>
@@ -6873,7 +6876,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
         <v>35</v>
@@ -6905,7 +6908,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
         <v>19</v>
@@ -6937,7 +6940,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
         <v>33</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
@@ -7001,7 +7004,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
@@ -7033,7 +7036,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
         <v>27</v>
@@ -7065,7 +7068,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -7105,7 +7108,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,24 +7118,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3">
         <v>0.875</v>
@@ -7141,7 +7144,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -7149,7 +7152,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="B3" s="3">
         <v>0.875</v>
@@ -7158,7 +7161,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B4" s="3">
         <v>0.5625</v>
@@ -7175,7 +7178,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
@@ -7183,7 +7186,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B5" s="3">
         <v>0.66666666666666663</v>
@@ -7192,7 +7195,7 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3">
         <v>0.66666666666666663</v>
@@ -7209,7 +7212,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
@@ -7217,7 +7220,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3">
         <v>0.66666666666666663</v>
@@ -7226,7 +7229,7 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B8" s="3">
         <v>0.66666666666666663</v>
@@ -7243,7 +7246,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -7251,7 +7254,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B9" s="3">
         <v>0.625</v>
@@ -7260,7 +7263,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -7268,7 +7271,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="B10" s="3">
         <v>0.72916666666666663</v>
@@ -7277,7 +7280,7 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
@@ -7285,7 +7288,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B11" s="3">
         <v>0.85416666666666663</v>
@@ -7294,7 +7297,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -7302,7 +7305,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3">
         <v>0.875</v>
@@ -7311,7 +7314,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -7319,7 +7322,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B13" s="3">
         <v>0.66666666666666663</v>
@@ -7328,7 +7331,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -7336,7 +7339,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B14" s="3">
         <v>0.66666666666666663</v>
@@ -7345,7 +7348,7 @@
         <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -7353,7 +7356,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B15" s="3">
         <v>0.66666666666666663</v>
@@ -7362,7 +7365,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -7370,7 +7373,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B16" s="3">
         <v>0.77083333333333337</v>
@@ -7379,7 +7382,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -7387,7 +7390,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B17" s="3">
         <v>0.625</v>
@@ -7396,7 +7399,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -7404,7 +7407,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B18" s="3">
         <v>0.625</v>
@@ -7413,7 +7416,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -7421,7 +7424,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B19" s="3">
         <v>0.625</v>
@@ -7430,7 +7433,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -7438,7 +7441,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B20" s="3">
         <v>0.72916666666666663</v>
@@ -7447,7 +7450,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -7455,7 +7458,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B21" s="3">
         <v>0.875</v>
@@ -7464,7 +7467,7 @@
         <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -7472,7 +7475,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3">
         <v>0.66666666666666663</v>
@@ -7481,7 +7484,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -7489,7 +7492,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B23" s="3">
         <v>0.66666666666666663</v>
@@ -7498,7 +7501,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B24" s="3">
         <v>0.66666666666666663</v>
@@ -7515,7 +7518,7 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
@@ -7523,7 +7526,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B25" s="3">
         <v>0.66666666666666663</v>
@@ -7532,7 +7535,7 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -7540,7 +7543,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B26" s="3">
         <v>0.66666666666666663</v>
@@ -7549,7 +7552,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -7557,7 +7560,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B27" s="3">
         <v>0.54166666666666663</v>
@@ -7566,7 +7569,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E27" t="s">
         <v>22</v>
@@ -7574,7 +7577,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B28" s="3">
         <v>0.63541666666666663</v>
@@ -7583,7 +7586,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -7591,7 +7594,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B29" s="3">
         <v>0.63541666666666663</v>
@@ -7600,7 +7603,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
@@ -7608,7 +7611,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B30" s="3">
         <v>0.63541666666666663</v>
@@ -7617,7 +7620,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -7625,7 +7628,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B31" s="3">
         <v>0.72916666666666663</v>
@@ -7634,7 +7637,7 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -7642,7 +7645,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B32" s="3">
         <v>0.875</v>
@@ -7651,7 +7654,7 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -7659,7 +7662,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B33" s="3">
         <v>0.54166666666666663</v>
@@ -7668,7 +7671,7 @@
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
         <v>36</v>
@@ -7676,7 +7679,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B34" s="3">
         <v>0.63541666666666663</v>
@@ -7685,7 +7688,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -7693,7 +7696,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B35" s="3">
         <v>0.66666666666666663</v>
@@ -7702,7 +7705,7 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
@@ -7710,7 +7713,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B36" s="3">
         <v>0.66666666666666663</v>
@@ -7719,7 +7722,7 @@
         <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E36" t="s">
         <v>31</v>
@@ -7727,7 +7730,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B37" s="3">
         <v>0.66666666666666663</v>
@@ -7736,7 +7739,7 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E37" t="s">
         <v>32</v>
@@ -7744,7 +7747,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B38" s="3">
         <v>0.66666666666666663</v>
@@ -7753,7 +7756,7 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E38" t="s">
         <v>25</v>
@@ -7761,7 +7764,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B39" s="3">
         <v>0.72916666666666663</v>
@@ -7770,7 +7773,7 @@
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -7778,7 +7781,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B40" s="3">
         <v>0.83333333333333337</v>
@@ -7787,7 +7790,7 @@
         <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E40" t="s">
         <v>24</v>
@@ -7795,7 +7798,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="B41" s="3">
         <v>0.875</v>
@@ -7804,7 +7807,7 @@
         <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
         <v>17</v>
@@ -7812,7 +7815,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B42" s="3">
         <v>0.70833333333333337</v>
@@ -7821,7 +7824,7 @@
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
         <v>35</v>
@@ -7829,7 +7832,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B43" s="3">
         <v>0.70833333333333337</v>
@@ -7838,7 +7841,7 @@
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E43" t="s">
         <v>27</v>
@@ -7846,7 +7849,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B44" s="3">
         <v>0.70833333333333337</v>
@@ -7855,7 +7858,7 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
         <v>21</v>
@@ -7863,7 +7866,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B45" s="3">
         <v>0.70833333333333337</v>
@@ -7872,7 +7875,7 @@
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -7880,7 +7883,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B46" s="3">
         <v>0.70833333333333337</v>
@@ -7889,7 +7892,7 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -7897,7 +7900,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B47" s="3">
         <v>0.70833333333333337</v>
@@ -7906,7 +7909,7 @@
         <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
@@ -7914,7 +7917,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B48" s="3">
         <v>0.70833333333333337</v>
@@ -7923,7 +7926,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E48" t="s">
         <v>29</v>
@@ -7931,7 +7934,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B49" s="3">
         <v>0.70833333333333337</v>
@@ -7940,7 +7943,7 @@
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
@@ -7948,7 +7951,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B50" s="3">
         <v>0.70833333333333337</v>
@@ -7957,7 +7960,7 @@
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -7965,7 +7968,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="B51" s="3">
         <v>0.70833333333333337</v>
@@ -7974,7 +7977,7 @@
         <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="E51" t="s">
         <v>26</v>
@@ -7990,38 +7993,38 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8029,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>260</v>
@@ -8041,16 +8044,16 @@
         <v>0.59</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8058,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C3">
         <v>213</v>
@@ -8070,16 +8073,16 @@
         <v>0.67</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8087,7 +8090,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C4">
         <v>208</v>
@@ -8099,16 +8102,16 @@
         <v>0.42</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="H4" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I4" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8116,7 +8119,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C5">
         <v>187</v>
@@ -8128,16 +8131,16 @@
         <v>0.45</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8145,7 +8148,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C6">
         <v>184</v>
@@ -8157,16 +8160,16 @@
         <v>0.67</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="I6" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8174,7 +8177,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>184</v>
@@ -8186,16 +8189,16 @@
         <v>0.63</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="H7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8203,7 +8206,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>177</v>
@@ -8215,16 +8218,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -8232,7 +8235,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C9">
         <v>175</v>
@@ -8244,16 +8247,16 @@
         <v>0.68</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I9" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8261,7 +8264,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C10">
         <v>163</v>
@@ -8273,16 +8276,16 @@
         <v>0.43</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="I10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -8290,7 +8293,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C11">
         <v>162</v>
@@ -8302,16 +8305,16 @@
         <v>0.33</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -8324,32 +8327,32 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8357,7 +8360,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>56</v>
@@ -8369,10 +8372,10 @@
         <v>0.84</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8380,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C3">
         <v>43</v>
@@ -8392,10 +8395,10 @@
         <v>0.86</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8403,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>34</v>
@@ -8415,10 +8418,10 @@
         <v>0.85</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8426,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -8438,10 +8441,10 @@
         <v>0.89</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8449,7 +8452,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -8461,10 +8464,10 @@
         <v>0.78</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8472,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <v>28</v>
@@ -8484,10 +8487,10 @@
         <v>0.85</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8495,7 +8498,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C8">
         <v>27</v>
@@ -8507,10 +8510,10 @@
         <v>0.82</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8518,7 +8521,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -8530,10 +8533,10 @@
         <v>0.82</v>
       </c>
       <c r="F9" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G9" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8541,7 +8544,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <v>25</v>
@@ -8553,10 +8556,10 @@
         <v>0.96</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8564,7 +8567,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C11">
         <v>23</v>
@@ -8576,10 +8579,10 @@
         <v>0.92</v>
       </c>
       <c r="F11" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G11" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8587,7 +8590,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -8599,10 +8602,10 @@
         <v>0.68</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G12" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -8615,32 +8618,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8648,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -8660,10 +8663,10 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="F2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -8671,7 +8674,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>17</v>
@@ -8683,10 +8686,10 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -8694,7 +8697,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -8706,10 +8709,10 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8717,7 +8720,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -8729,10 +8732,10 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8740,7 +8743,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -8752,10 +8755,10 @@
         <v>4.7E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8763,7 +8766,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C7">
         <v>11</v>
@@ -8775,10 +8778,10 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8786,7 +8789,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -8798,10 +8801,10 @@
         <v>3.9E-2</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G8" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8809,7 +8812,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -8821,10 +8824,10 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8832,7 +8835,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -8844,10 +8847,10 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8855,7 +8858,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -8867,10 +8870,10 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8878,7 +8881,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -8890,10 +8893,10 @@
         <v>3.1E-2</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8901,7 +8904,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -8913,10 +8916,10 @@
         <v>0.03</v>
       </c>
       <c r="F13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" t="s">
         <v>266</v>
-      </c>
-      <c r="G13" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8924,7 +8927,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -8936,10 +8939,10 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
